--- a/data/ondraaglijk-traag-analyse-afhandeling-wob-verzoeken-okt-2020-tm-sep-2021/WOB-verzoeken AZ.xlsx
+++ b/data/ondraaglijk-traag-analyse-afhandeling-wob-verzoeken-okt-2020-tm-sep-2021/WOB-verzoeken AZ.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMI\Documents\Projecten\Wob hulp\Wobonderzoek imi december 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsuni-my.sharepoint.com/personal/maik_larooij_student_uva_nl/Documents/Jaar 3/Afstudeerproject/bachelorsthesis/data/ondraaglijk-traag-analyse-afhandeling-wob-verzoeken-okt-2020-tm-sep-2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC68A053-293C-43E8-B658-DA353D144BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{AC68A053-293C-43E8-B658-DA353D144BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EEFA8C3-AC28-49F5-A8D9-A15552E8C915}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{69FCA6B6-97E2-459F-A1DB-7A176E95A2B0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69FCA6B6-97E2-459F-A1DB-7A176E95A2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -451,7 +454,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +492,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,10 +554,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -592,8 +604,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
@@ -1295,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1777A1-7B5B-4D67-B576-066002339E2B}">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,12 +1320,12 @@
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" customWidth="1"/>
     <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" customWidth="1"/>
     <col min="10" max="10" width="38.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" customWidth="1"/>
+    <col min="12" max="12" width="38.42578125" customWidth="1"/>
     <col min="13" max="13" width="38.7109375" style="7" customWidth="1"/>
     <col min="14" max="14" width="47.5703125" style="19" customWidth="1"/>
     <col min="15" max="15" width="190.7109375" bestFit="1" customWidth="1"/>
@@ -1378,11 +1392,11 @@
         <v>44285</v>
       </c>
       <c r="E2" s="2">
-        <f>_xlfn.DAYS(D2,C2)</f>
+        <f t="shared" ref="E2:E33" si="0">_xlfn.DAYS(D2,C2)</f>
         <v>468</v>
       </c>
       <c r="F2" s="5" t="str">
-        <f>IF(E2&lt;=56,"Ja","Nee")</f>
+        <f t="shared" ref="F2:F33" si="1">IF(E2&lt;=56,"Ja","Nee")</f>
         <v>Nee</v>
       </c>
       <c r="G2" s="2">
@@ -1395,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="6" t="e">
-        <f>E2/K2</f>
+        <f t="shared" ref="L2:L33" si="2">E2/K2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -1422,11 +1436,11 @@
         <v>44167</v>
       </c>
       <c r="E3" s="2">
-        <f>_xlfn.DAYS(D3,C3)</f>
+        <f t="shared" si="0"/>
         <v>251</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f>IF(E3&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G3" s="2">
@@ -1441,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="6">
-        <f>E3/K3</f>
+        <f t="shared" si="2"/>
         <v>83.666666666666671</v>
       </c>
       <c r="M3" s="24" t="s">
@@ -1468,11 +1482,11 @@
         <v>44111</v>
       </c>
       <c r="E4" s="2">
-        <f>_xlfn.DAYS(D4,C4)</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f>IF(E4&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G4" s="2">
@@ -1487,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="6">
-        <f>E4/K4</f>
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -1514,11 +1528,11 @@
         <v>44484</v>
       </c>
       <c r="E5" s="2">
-        <f>_xlfn.DAYS(D5,C5)</f>
+        <f t="shared" si="0"/>
         <v>191</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f>IF(E5&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G5" s="7">
@@ -1531,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="6" t="e">
-        <f>E5/K5</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M5" s="9" t="s">
@@ -1558,11 +1572,11 @@
         <v>44438</v>
       </c>
       <c r="E6" s="2">
-        <f>_xlfn.DAYS(D6,C6)</f>
+        <f t="shared" si="0"/>
         <v>143</v>
       </c>
       <c r="F6" s="5" t="str">
-        <f>IF(E6&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G6" s="2">
@@ -1575,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="6" t="e">
-        <f>E6/K6</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1602,11 +1616,11 @@
         <v>44354</v>
       </c>
       <c r="E7" s="2">
-        <f>_xlfn.DAYS(D7,C7)</f>
+        <f t="shared" si="0"/>
         <v>139</v>
       </c>
       <c r="F7" s="5" t="str">
-        <f>IF(E7&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G7" s="7">
@@ -1622,7 +1636,7 @@
         <v>8</v>
       </c>
       <c r="L7" s="6">
-        <f>E7/K7</f>
+        <f t="shared" si="2"/>
         <v>17.375</v>
       </c>
       <c r="M7" s="9" t="s">
@@ -1647,11 +1661,11 @@
         <v>44455</v>
       </c>
       <c r="E8" s="2">
-        <f>_xlfn.DAYS(D8,C8)</f>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="F8" s="5" t="str">
-        <f>IF(E8&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G8" s="2">
@@ -1666,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="6">
-        <f>E8/K8</f>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1691,11 +1705,11 @@
         <v>44385</v>
       </c>
       <c r="E9" s="2">
-        <f>_xlfn.DAYS(D9,C9)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="F9" s="5" t="str">
-        <f>IF(E9&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G9" s="7">
@@ -1708,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="6" t="e">
-        <f>E9/K9</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M9" s="10" t="s">
@@ -1735,11 +1749,11 @@
         <v>44435</v>
       </c>
       <c r="E10" s="2">
-        <f>_xlfn.DAYS(D10,C10)</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="F10" s="5" t="str">
-        <f>IF(E10&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G10" s="7">
@@ -1752,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="6" t="e">
-        <f>E10/K10</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M10" s="9" t="s">
@@ -1779,11 +1793,11 @@
         <v>44344</v>
       </c>
       <c r="E11" s="2">
-        <f>_xlfn.DAYS(D11,C11)</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="F11" s="5" t="str">
-        <f>IF(E11&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G11" s="2">
@@ -1798,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="6">
-        <f>E11/K11</f>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1825,11 +1839,11 @@
         <v>44378</v>
       </c>
       <c r="E12" s="2">
-        <f>_xlfn.DAYS(D12,C12)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="F12" s="5" t="str">
-        <f>IF(E12&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G12" s="7">
@@ -1842,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="6" t="e">
-        <f>E12/K12</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="9" t="s">
@@ -1869,11 +1883,11 @@
         <v>44378</v>
       </c>
       <c r="E13" s="2">
-        <f>_xlfn.DAYS(D13,C13)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="F13" s="5" t="str">
-        <f>IF(E13&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G13" s="2">
@@ -1886,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="6" t="e">
-        <f>E13/K13</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -1913,11 +1927,11 @@
         <v>44237</v>
       </c>
       <c r="E14" s="2">
-        <f>_xlfn.DAYS(D14,C14)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="F14" s="5" t="str">
-        <f>IF(E14&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G14" s="7">
@@ -1932,14 +1946,14 @@
         <v>11</v>
       </c>
       <c r="L14" s="6">
-        <f>E14/K14</f>
+        <f t="shared" si="2"/>
         <v>7.5454545454545459</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>104</v>
       </c>
       <c r="N14" s="9"/>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="25" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1957,11 +1971,11 @@
         <v>44267</v>
       </c>
       <c r="E15" s="2">
-        <f>_xlfn.DAYS(D15,C15)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="F15" s="5" t="str">
-        <f>IF(E15&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G15" s="7">
@@ -1976,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="6">
-        <f>E15/K15</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="M15" s="9" t="s">
@@ -2003,11 +2017,11 @@
         <v>44496</v>
       </c>
       <c r="E16" s="2">
-        <f>_xlfn.DAYS(D16,C16)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="F16" s="5" t="str">
-        <f>IF(E16&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G16" s="2">
@@ -2022,7 +2036,7 @@
         <v>4</v>
       </c>
       <c r="L16" s="6">
-        <f>E16/K16</f>
+        <f t="shared" si="2"/>
         <v>18.75</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -2049,11 +2063,11 @@
         <v>44392</v>
       </c>
       <c r="E17" s="2">
-        <f>_xlfn.DAYS(D17,C17)</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="F17" s="5" t="str">
-        <f>IF(E17&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G17" s="2">
@@ -2068,7 +2082,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="6">
-        <f>E17/K17</f>
+        <f t="shared" si="2"/>
         <v>24.333333333333332</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -2095,11 +2109,11 @@
         <v>44378</v>
       </c>
       <c r="E18" s="2">
-        <f>_xlfn.DAYS(D18,C18)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="F18" s="5" t="str">
-        <f>IF(E18&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G18" s="2">
@@ -2114,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="6">
-        <f>E18/K18</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -2141,11 +2155,11 @@
         <v>44483</v>
       </c>
       <c r="E19" s="2">
-        <f>_xlfn.DAYS(D19,C19)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="F19" s="5" t="str">
-        <f>IF(E19&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G19" s="2">
@@ -2160,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="6">
-        <f>E19/K19</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -2187,11 +2201,11 @@
         <v>44433</v>
       </c>
       <c r="E20" s="2">
-        <f>_xlfn.DAYS(D20,C20)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="F20" s="5" t="str">
-        <f>IF(E20&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Nee</v>
       </c>
       <c r="G20" s="7">
@@ -2204,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="6" t="e">
-        <f>E20/K20</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M20" s="9" t="s">
@@ -2231,11 +2245,11 @@
         <v>44272</v>
       </c>
       <c r="E21" s="2">
-        <f>_xlfn.DAYS(D21,C21)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="F21" s="5" t="str">
-        <f>IF(E21&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G21" s="2">
@@ -2248,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="6" t="e">
-        <f>E21/K21</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -2275,11 +2289,11 @@
         <v>44285</v>
       </c>
       <c r="E22" s="2">
-        <f>_xlfn.DAYS(D22,C22)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F22" s="5" t="str">
-        <f>IF(E22&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G22" s="7">
@@ -2292,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="e">
-        <f>E22/K22</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="9" t="s">
@@ -2319,11 +2333,11 @@
         <v>44467</v>
       </c>
       <c r="E23" s="2">
-        <f>_xlfn.DAYS(D23,C23)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F23" s="5" t="str">
-        <f>IF(E23&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G23" s="7">
@@ -2340,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="6">
-        <f>E23/K23</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="M23" s="9" t="s">
@@ -2367,11 +2381,11 @@
         <v>44158</v>
       </c>
       <c r="E24" s="2">
-        <f>_xlfn.DAYS(D24,C24)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F24" s="5" t="str">
-        <f>IF(E24&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G24" s="7">
@@ -2386,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="6">
-        <f>E24/K24</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="M24" s="9" t="s">
@@ -2413,11 +2427,11 @@
         <v>44258</v>
       </c>
       <c r="E25" s="2">
-        <f>_xlfn.DAYS(D25,C25)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F25" s="5" t="str">
-        <f>IF(E25&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G25" s="2">
@@ -2430,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="6" t="e">
-        <f>E25/K25</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -2457,11 +2471,11 @@
         <v>44250</v>
       </c>
       <c r="E26" s="2">
-        <f>_xlfn.DAYS(D26,C26)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="F26" s="5" t="str">
-        <f>IF(E26&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G26" s="2">
@@ -2474,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="6" t="e">
-        <f>E26/K26</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -2501,11 +2515,11 @@
         <v>44257</v>
       </c>
       <c r="E27" s="2">
-        <f>_xlfn.DAYS(D27,C27)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="F27" s="5" t="str">
-        <f>IF(E27&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G27">
@@ -2518,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="6" t="e">
-        <f>E27/K27</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="9" t="s">
@@ -2545,11 +2559,11 @@
         <v>44154</v>
       </c>
       <c r="E28" s="2">
-        <f>_xlfn.DAYS(D28,C28)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="F28" s="5" t="str">
-        <f>IF(E28&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G28" s="2">
@@ -2564,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="6">
-        <f>E28/K28</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -2589,11 +2603,11 @@
         <v>44151</v>
       </c>
       <c r="E29" s="2">
-        <f>_xlfn.DAYS(D29,C29)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="F29" s="5" t="str">
-        <f>IF(E29&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G29" s="7">
@@ -2606,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="6" t="e">
-        <f>E29/K29</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="9" t="s">
@@ -2633,11 +2647,11 @@
         <v>44279</v>
       </c>
       <c r="E30" s="2">
-        <f>_xlfn.DAYS(D30,C30)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F30" s="5" t="str">
-        <f>IF(E30&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G30" s="7">
@@ -2650,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="6" t="e">
-        <f>E30/K30</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="9" t="s">
@@ -2671,11 +2685,11 @@
       <c r="C31" s="4"/>
       <c r="D31" s="8"/>
       <c r="E31" s="2">
-        <f>_xlfn.DAYS(D31,C31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="5" t="str">
-        <f>IF(E31&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G31" s="7"/>
@@ -2684,7 +2698,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="7"/>
       <c r="L31" s="6" t="e">
-        <f>E31/K31</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="9"/>
@@ -2699,11 +2713,11 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="2">
-        <f>_xlfn.DAYS(D32,C32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="5" t="str">
-        <f>IF(E32&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G32" s="2"/>
@@ -2712,7 +2726,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="2"/>
       <c r="L32" s="6" t="e">
-        <f>E32/K32</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="3"/>
@@ -2727,11 +2741,11 @@
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
       <c r="E33" s="2">
-        <f>_xlfn.DAYS(D33,C33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="5" t="str">
-        <f>IF(E33&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="G33" s="7"/>
@@ -2740,7 +2754,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="7"/>
       <c r="L33" s="6" t="e">
-        <f>E33/K33</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" s="9"/>
@@ -2755,11 +2769,11 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="2">
-        <f>_xlfn.DAYS(D34,C34)</f>
+        <f t="shared" ref="E34:E65" si="3">_xlfn.DAYS(D34,C34)</f>
         <v>0</v>
       </c>
       <c r="F34" s="5" t="str">
-        <f>IF(E34&lt;=56,"Ja","Nee")</f>
+        <f t="shared" ref="F34:F65" si="4">IF(E34&lt;=56,"Ja","Nee")</f>
         <v>Ja</v>
       </c>
       <c r="G34" s="2"/>
@@ -2768,7 +2782,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="2"/>
       <c r="L34" s="6" t="e">
-        <f>E34/K34</f>
+        <f t="shared" ref="L34:L65" si="5">E34/K34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="3"/>
@@ -2783,11 +2797,11 @@
       <c r="C35" s="4"/>
       <c r="D35" s="8"/>
       <c r="E35" s="2">
-        <f>_xlfn.DAYS(D35,C35)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F35" s="5" t="str">
-        <f>IF(E35&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G35" s="7"/>
@@ -2796,7 +2810,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="7"/>
       <c r="L35" s="6" t="e">
-        <f>E35/K35</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="9"/>
@@ -2811,11 +2825,11 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="2">
-        <f>_xlfn.DAYS(D36,C36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F36" s="5" t="str">
-        <f>IF(E36&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G36" s="2"/>
@@ -2824,7 +2838,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="6" t="e">
-        <f>E36/K36</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="3"/>
@@ -2839,18 +2853,18 @@
       <c r="C37" s="4"/>
       <c r="D37" s="11"/>
       <c r="E37" s="2">
-        <f>_xlfn.DAYS(D37,C37)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F37" s="5" t="str">
-        <f>IF(E37&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="16"/>
       <c r="L37" s="6" t="e">
-        <f>E37/K37</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M37" s="9"/>
@@ -2865,11 +2879,11 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="2">
-        <f>_xlfn.DAYS(D38,C38)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F38" s="5" t="str">
-        <f>IF(E38&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G38" s="2"/>
@@ -2878,7 +2892,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="2"/>
       <c r="L38" s="6" t="e">
-        <f>E38/K38</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M38" s="3"/>
@@ -2893,11 +2907,11 @@
       <c r="C39" s="4"/>
       <c r="D39" s="8"/>
       <c r="E39" s="2">
-        <f>_xlfn.DAYS(D39,C39)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F39" s="5" t="str">
-        <f>IF(E39&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G39" s="7"/>
@@ -2906,7 +2920,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="7"/>
       <c r="L39" s="6" t="e">
-        <f>E39/K39</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" s="9"/>
@@ -2921,11 +2935,11 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="2">
-        <f>_xlfn.DAYS(D40,C40)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40" s="5" t="str">
-        <f>IF(E40&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G40" s="2"/>
@@ -2934,7 +2948,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="2"/>
       <c r="L40" s="6" t="e">
-        <f>E40/K40</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M40" s="3"/>
@@ -2949,11 +2963,11 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="2">
-        <f>_xlfn.DAYS(D41,C41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F41" s="5" t="str">
-        <f>IF(E41&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G41" s="7"/>
@@ -2962,7 +2976,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="7"/>
       <c r="L41" s="6" t="e">
-        <f>E41/K41</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M41" s="9"/>
@@ -2977,11 +2991,11 @@
       <c r="C42" s="4"/>
       <c r="D42" s="8"/>
       <c r="E42" s="2">
-        <f>_xlfn.DAYS(D42,C42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F42" s="5" t="str">
-        <f>IF(E42&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G42" s="2"/>
@@ -2990,7 +3004,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="2"/>
       <c r="L42" s="6" t="e">
-        <f>E42/K42</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M42" s="3"/>
@@ -3005,11 +3019,11 @@
       <c r="C43" s="4"/>
       <c r="D43" s="8"/>
       <c r="E43" s="2">
-        <f>_xlfn.DAYS(D43,C43)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F43" s="5" t="str">
-        <f>IF(E43&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G43" s="7"/>
@@ -3018,7 +3032,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="7"/>
       <c r="L43" s="6" t="e">
-        <f>E43/K43</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M43" s="9"/>
@@ -3033,11 +3047,11 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="2">
-        <f>_xlfn.DAYS(D44,C44)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F44" s="5" t="str">
-        <f>IF(E44&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G44" s="2"/>
@@ -3046,7 +3060,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="2"/>
       <c r="L44" s="6" t="e">
-        <f>E44/K44</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M44" s="3"/>
@@ -3061,11 +3075,11 @@
       <c r="C45" s="4"/>
       <c r="D45" s="8"/>
       <c r="E45" s="2">
-        <f>_xlfn.DAYS(D45,C45)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F45" s="5" t="str">
-        <f>IF(E45&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G45" s="7"/>
@@ -3074,7 +3088,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="7"/>
       <c r="L45" s="6" t="e">
-        <f>E45/K45</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M45" s="12"/>
@@ -3089,11 +3103,11 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="2">
-        <f>_xlfn.DAYS(D46,C46)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F46" s="5" t="str">
-        <f>IF(E46&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G46" s="2"/>
@@ -3102,7 +3116,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="2"/>
       <c r="L46" s="6" t="e">
-        <f>E46/K46</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M46" s="3"/>
@@ -3117,11 +3131,11 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="2">
-        <f>_xlfn.DAYS(D47,C47)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" s="5" t="str">
-        <f>IF(E47&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G47" s="2"/>
@@ -3130,7 +3144,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="2"/>
       <c r="L47" s="6" t="e">
-        <f>E47/K47</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M47" s="3"/>
@@ -3145,11 +3159,11 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="2">
-        <f>_xlfn.DAYS(D48,C48)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48" s="5" t="str">
-        <f>IF(E48&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G48" s="2"/>
@@ -3158,7 +3172,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="2"/>
       <c r="L48" s="6" t="e">
-        <f>E48/K48</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M48" s="3"/>
@@ -3173,11 +3187,11 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="2">
-        <f>_xlfn.DAYS(D49,C49)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F49" s="5" t="str">
-        <f>IF(E49&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G49" s="2"/>
@@ -3186,7 +3200,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="2"/>
       <c r="L49" s="6" t="e">
-        <f>E49/K49</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M49" s="3"/>
@@ -3201,11 +3215,11 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="2">
-        <f>_xlfn.DAYS(D50,C50)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F50" s="5" t="str">
-        <f>IF(E50&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G50" s="2"/>
@@ -3214,7 +3228,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="2"/>
       <c r="L50" s="6" t="e">
-        <f>E50/K50</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M50" s="3"/>
@@ -3229,11 +3243,11 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="2">
-        <f>_xlfn.DAYS(D51,C51)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F51" s="5" t="str">
-        <f>IF(E51&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G51" s="2"/>
@@ -3242,7 +3256,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="2"/>
       <c r="L51" s="6" t="e">
-        <f>E51/K51</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M51" s="3"/>
@@ -3257,11 +3271,11 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="2">
-        <f>_xlfn.DAYS(D52,C52)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F52" s="5" t="str">
-        <f>IF(E52&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G52" s="2"/>
@@ -3270,7 +3284,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="2"/>
       <c r="L52" s="6" t="e">
-        <f>E52/K52</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M52" s="3"/>
@@ -3285,11 +3299,11 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="2">
-        <f>_xlfn.DAYS(D53,C53)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F53" s="5" t="str">
-        <f>IF(E53&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G53" s="2"/>
@@ -3298,7 +3312,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="2"/>
       <c r="L53" s="6" t="e">
-        <f>E53/K53</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M53" s="3"/>
@@ -3313,11 +3327,11 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="2">
-        <f>_xlfn.DAYS(D54,C54)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F54" s="5" t="str">
-        <f>IF(E54&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G54" s="2"/>
@@ -3326,7 +3340,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="2"/>
       <c r="L54" s="6" t="e">
-        <f>E54/K54</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M54" s="3"/>
@@ -3341,11 +3355,11 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="2">
-        <f>_xlfn.DAYS(D55,C55)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F55" s="5" t="str">
-        <f>IF(E55&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G55" s="2"/>
@@ -3354,7 +3368,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="2"/>
       <c r="L55" s="6" t="e">
-        <f>E55/K55</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M55" s="3"/>
@@ -3369,11 +3383,11 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="2">
-        <f>_xlfn.DAYS(D56,C56)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F56" s="5" t="str">
-        <f>IF(E56&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G56" s="2"/>
@@ -3382,7 +3396,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="2"/>
       <c r="L56" s="6" t="e">
-        <f>E56/K56</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M56" s="3"/>
@@ -3397,11 +3411,11 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="2">
-        <f>_xlfn.DAYS(D57,C57)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F57" s="5" t="str">
-        <f>IF(E57&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G57" s="2"/>
@@ -3410,7 +3424,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="2"/>
       <c r="L57" s="6" t="e">
-        <f>E57/K57</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M57" s="3"/>
@@ -3425,11 +3439,11 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="2">
-        <f>_xlfn.DAYS(D58,C58)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F58" s="5" t="str">
-        <f>IF(E58&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G58" s="2"/>
@@ -3438,7 +3452,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="2"/>
       <c r="L58" s="6" t="e">
-        <f>E58/K58</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M58" s="3"/>
@@ -3453,11 +3467,11 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="2">
-        <f>_xlfn.DAYS(D59,C59)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F59" s="5" t="str">
-        <f>IF(E59&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G59" s="2"/>
@@ -3466,7 +3480,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="2"/>
       <c r="L59" s="6" t="e">
-        <f>E59/K59</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M59" s="3"/>
@@ -3481,11 +3495,11 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="2">
-        <f>_xlfn.DAYS(D60,C60)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F60" s="5" t="str">
-        <f>IF(E60&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G60" s="2"/>
@@ -3494,7 +3508,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="2"/>
       <c r="L60" s="6" t="e">
-        <f>E60/K60</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M60" s="3"/>
@@ -3509,11 +3523,11 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="2">
-        <f>_xlfn.DAYS(D61,C61)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F61" s="5" t="str">
-        <f>IF(E61&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G61" s="2"/>
@@ -3522,7 +3536,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="2"/>
       <c r="L61" s="6" t="e">
-        <f>E61/K61</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="3"/>
@@ -3537,11 +3551,11 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="2">
-        <f>_xlfn.DAYS(D62,C62)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F62" s="5" t="str">
-        <f>IF(E62&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G62" s="2"/>
@@ -3550,7 +3564,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="2"/>
       <c r="L62" s="6" t="e">
-        <f>E62/K62</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="3"/>
@@ -3565,11 +3579,11 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="2">
-        <f>_xlfn.DAYS(D63,C63)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F63" s="5" t="str">
-        <f>IF(E63&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G63" s="2"/>
@@ -3578,7 +3592,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="2"/>
       <c r="L63" s="6" t="e">
-        <f>E63/K63</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" s="3"/>
@@ -3593,11 +3607,11 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="2">
-        <f>_xlfn.DAYS(D64,C64)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F64" s="5" t="str">
-        <f>IF(E64&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G64" s="2"/>
@@ -3606,7 +3620,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="2"/>
       <c r="L64" s="6" t="e">
-        <f>E64/K64</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M64" s="3"/>
@@ -3621,11 +3635,11 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="2">
-        <f>_xlfn.DAYS(D65,C65)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F65" s="5" t="str">
-        <f>IF(E65&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="4"/>
         <v>Ja</v>
       </c>
       <c r="G65" s="2"/>
@@ -3634,7 +3648,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="2"/>
       <c r="L65" s="6" t="e">
-        <f>E65/K65</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M65" s="3"/>
@@ -3649,11 +3663,11 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="2">
-        <f>_xlfn.DAYS(D66,C66)</f>
+        <f t="shared" ref="E66:E97" si="6">_xlfn.DAYS(D66,C66)</f>
         <v>0</v>
       </c>
       <c r="F66" s="5" t="str">
-        <f>IF(E66&lt;=56,"Ja","Nee")</f>
+        <f t="shared" ref="F66:F97" si="7">IF(E66&lt;=56,"Ja","Nee")</f>
         <v>Ja</v>
       </c>
       <c r="G66" s="2"/>
@@ -3662,7 +3676,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="2"/>
       <c r="L66" s="6" t="e">
-        <f>E66/K66</f>
+        <f t="shared" ref="L66:L97" si="8">E66/K66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M66" s="3"/>
@@ -3677,11 +3691,11 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="2">
-        <f>_xlfn.DAYS(D67,C67)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F67" s="5" t="str">
-        <f>IF(E67&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G67" s="2"/>
@@ -3690,7 +3704,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="2"/>
       <c r="L67" s="6" t="e">
-        <f>E67/K67</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M67" s="3"/>
@@ -3705,11 +3719,11 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="2">
-        <f>_xlfn.DAYS(D68,C68)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F68" s="5" t="str">
-        <f>IF(E68&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G68" s="2"/>
@@ -3718,7 +3732,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="2"/>
       <c r="L68" s="6" t="e">
-        <f>E68/K68</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M68" s="3"/>
@@ -3733,11 +3747,11 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="2">
-        <f>_xlfn.DAYS(D69,C69)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F69" s="5" t="str">
-        <f>IF(E69&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G69" s="2"/>
@@ -3746,7 +3760,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="2"/>
       <c r="L69" s="6" t="e">
-        <f>E69/K69</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M69" s="3"/>
@@ -3761,11 +3775,11 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="2">
-        <f>_xlfn.DAYS(D70,C70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F70" s="5" t="str">
-        <f>IF(E70&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G70" s="2"/>
@@ -3774,7 +3788,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="2"/>
       <c r="L70" s="6" t="e">
-        <f>E70/K70</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M70" s="3"/>
@@ -3789,11 +3803,11 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="2">
-        <f>_xlfn.DAYS(D71,C71)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F71" s="5" t="str">
-        <f>IF(E71&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G71" s="2"/>
@@ -3802,7 +3816,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="2"/>
       <c r="L71" s="6" t="e">
-        <f>E71/K71</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M71" s="3"/>
@@ -3817,11 +3831,11 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="2">
-        <f>_xlfn.DAYS(D72,C72)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F72" s="5" t="str">
-        <f>IF(E72&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G72" s="2"/>
@@ -3830,7 +3844,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="2"/>
       <c r="L72" s="6" t="e">
-        <f>E72/K72</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M72" s="3"/>
@@ -3845,11 +3859,11 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="2">
-        <f>_xlfn.DAYS(D73,C73)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F73" s="5" t="str">
-        <f>IF(E73&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G73" s="2"/>
@@ -3858,7 +3872,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="2"/>
       <c r="L73" s="6" t="e">
-        <f>E73/K73</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M73" s="3"/>
@@ -3873,11 +3887,11 @@
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="2">
-        <f>_xlfn.DAYS(D74,C74)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F74" s="5" t="str">
-        <f>IF(E74&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G74" s="2"/>
@@ -3886,7 +3900,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="2"/>
       <c r="L74" s="6" t="e">
-        <f>E74/K74</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M74" s="3"/>
@@ -3901,11 +3915,11 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="2">
-        <f>_xlfn.DAYS(D75,C75)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F75" s="5" t="str">
-        <f>IF(E75&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G75" s="2"/>
@@ -3914,7 +3928,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="2"/>
       <c r="L75" s="6" t="e">
-        <f>E75/K75</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M75" s="3"/>
@@ -3929,11 +3943,11 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="2">
-        <f>_xlfn.DAYS(D76,C76)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F76" s="5" t="str">
-        <f>IF(E76&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G76" s="2"/>
@@ -3942,7 +3956,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="2"/>
       <c r="L76" s="6" t="e">
-        <f>E76/K76</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M76" s="3"/>
@@ -3957,11 +3971,11 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="2">
-        <f>_xlfn.DAYS(D77,C77)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F77" s="5" t="str">
-        <f>IF(E77&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G77" s="2"/>
@@ -3970,7 +3984,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="2"/>
       <c r="L77" s="6" t="e">
-        <f>E77/K77</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M77" s="3"/>
@@ -3985,11 +3999,11 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="2">
-        <f>_xlfn.DAYS(D78,C78)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F78" s="5" t="str">
-        <f>IF(E78&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G78" s="2"/>
@@ -3998,7 +4012,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="2"/>
       <c r="L78" s="6" t="e">
-        <f>E78/K78</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M78" s="3"/>
@@ -4013,11 +4027,11 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="2">
-        <f>_xlfn.DAYS(D79,C79)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F79" s="5" t="str">
-        <f>IF(E79&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G79" s="2"/>
@@ -4026,7 +4040,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="2"/>
       <c r="L79" s="6" t="e">
-        <f>E79/K79</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M79" s="3"/>
@@ -4041,11 +4055,11 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="2">
-        <f>_xlfn.DAYS(D80,C80)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F80" s="5" t="str">
-        <f>IF(E80&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G80" s="2"/>
@@ -4054,7 +4068,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="2"/>
       <c r="L80" s="6" t="e">
-        <f>E80/K80</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M80" s="3"/>
@@ -4069,11 +4083,11 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="2">
-        <f>_xlfn.DAYS(D81,C81)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F81" s="5" t="str">
-        <f>IF(E81&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G81" s="2"/>
@@ -4082,7 +4096,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="2"/>
       <c r="L81" s="6" t="e">
-        <f>E81/K81</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M81" s="3"/>
@@ -4097,11 +4111,11 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="2">
-        <f>_xlfn.DAYS(D82,C82)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F82" s="5" t="str">
-        <f>IF(E82&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G82" s="2"/>
@@ -4110,7 +4124,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="2"/>
       <c r="L82" s="6" t="e">
-        <f>E82/K82</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M82" s="3"/>
@@ -4125,11 +4139,11 @@
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="2">
-        <f>_xlfn.DAYS(D83,C83)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F83" s="5" t="str">
-        <f>IF(E83&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G83" s="2"/>
@@ -4138,7 +4152,7 @@
       <c r="J83" s="3"/>
       <c r="K83" s="2"/>
       <c r="L83" s="6" t="e">
-        <f>E83/K83</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M83" s="3"/>
@@ -4153,11 +4167,11 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="2">
-        <f>_xlfn.DAYS(D84,C84)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F84" s="5" t="str">
-        <f>IF(E84&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G84" s="2"/>
@@ -4166,7 +4180,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="2"/>
       <c r="L84" s="6" t="e">
-        <f>E84/K84</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M84" s="3"/>
@@ -4181,11 +4195,11 @@
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="2">
-        <f>_xlfn.DAYS(D85,C85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F85" s="5" t="str">
-        <f>IF(E85&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G85" s="2"/>
@@ -4194,7 +4208,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="2"/>
       <c r="L85" s="6" t="e">
-        <f>E85/K85</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M85" s="3"/>
@@ -4209,11 +4223,11 @@
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="2">
-        <f>_xlfn.DAYS(D86,C86)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F86" s="5" t="str">
-        <f>IF(E86&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G86" s="2"/>
@@ -4222,7 +4236,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="2"/>
       <c r="L86" s="6" t="e">
-        <f>E86/K86</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M86" s="3"/>
@@ -4237,11 +4251,11 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="2">
-        <f>_xlfn.DAYS(D87,C87)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F87" s="5" t="str">
-        <f>IF(E87&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G87" s="2"/>
@@ -4250,7 +4264,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="2"/>
       <c r="L87" s="6" t="e">
-        <f>E87/K87</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M87" s="3"/>
@@ -4265,11 +4279,11 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="2">
-        <f>_xlfn.DAYS(D88,C88)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F88" s="5" t="str">
-        <f>IF(E88&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G88" s="2"/>
@@ -4278,7 +4292,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="2"/>
       <c r="L88" s="6" t="e">
-        <f>E88/K88</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M88" s="3"/>
@@ -4293,11 +4307,11 @@
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="2">
-        <f>_xlfn.DAYS(D89,C89)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F89" s="5" t="str">
-        <f>IF(E89&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G89" s="2"/>
@@ -4306,7 +4320,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="2"/>
       <c r="L89" s="6" t="e">
-        <f>E89/K89</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M89" s="3"/>
@@ -4321,11 +4335,11 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="2">
-        <f>_xlfn.DAYS(D90,C90)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F90" s="5" t="str">
-        <f>IF(E90&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G90" s="2"/>
@@ -4334,7 +4348,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="2"/>
       <c r="L90" s="6" t="e">
-        <f>E90/K90</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M90" s="3"/>
@@ -4349,11 +4363,11 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="2">
-        <f>_xlfn.DAYS(D91,C91)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F91" s="5" t="str">
-        <f>IF(E91&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G91" s="2"/>
@@ -4362,7 +4376,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="2"/>
       <c r="L91" s="6" t="e">
-        <f>E91/K91</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M91" s="3"/>
@@ -4377,11 +4391,11 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="2">
-        <f>_xlfn.DAYS(D92,C92)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F92" s="5" t="str">
-        <f>IF(E92&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G92" s="2"/>
@@ -4390,7 +4404,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="2"/>
       <c r="L92" s="6" t="e">
-        <f>E92/K92</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M92" s="3"/>
@@ -4405,11 +4419,11 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="2">
-        <f>_xlfn.DAYS(D93,C93)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F93" s="5" t="str">
-        <f>IF(E93&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G93" s="2"/>
@@ -4418,7 +4432,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="2"/>
       <c r="L93" s="6" t="e">
-        <f>E93/K93</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M93" s="3"/>
@@ -4433,11 +4447,11 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="2">
-        <f>_xlfn.DAYS(D94,C94)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F94" s="5" t="str">
-        <f>IF(E94&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G94" s="2"/>
@@ -4446,7 +4460,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="2"/>
       <c r="L94" s="6" t="e">
-        <f>E94/K94</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M94" s="3"/>
@@ -4461,11 +4475,11 @@
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="2">
-        <f>_xlfn.DAYS(D95,C95)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F95" s="5" t="str">
-        <f>IF(E95&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G95" s="2"/>
@@ -4474,7 +4488,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="2"/>
       <c r="L95" s="6" t="e">
-        <f>E95/K95</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M95" s="3"/>
@@ -4489,11 +4503,11 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="2">
-        <f>_xlfn.DAYS(D96,C96)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F96" s="5" t="str">
-        <f>IF(E96&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G96" s="2"/>
@@ -4502,7 +4516,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="2"/>
       <c r="L96" s="6" t="e">
-        <f>E96/K96</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M96" s="3"/>
@@ -4517,11 +4531,11 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="2">
-        <f>_xlfn.DAYS(D97,C97)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F97" s="5" t="str">
-        <f>IF(E97&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="7"/>
         <v>Ja</v>
       </c>
       <c r="G97" s="2"/>
@@ -4530,7 +4544,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="2"/>
       <c r="L97" s="6" t="e">
-        <f>E97/K97</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M97" s="3"/>
@@ -4545,11 +4559,11 @@
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="2">
-        <f>_xlfn.DAYS(D98,C98)</f>
+        <f t="shared" ref="E98:E129" si="9">_xlfn.DAYS(D98,C98)</f>
         <v>0</v>
       </c>
       <c r="F98" s="5" t="str">
-        <f>IF(E98&lt;=56,"Ja","Nee")</f>
+        <f t="shared" ref="F98:F129" si="10">IF(E98&lt;=56,"Ja","Nee")</f>
         <v>Ja</v>
       </c>
       <c r="G98" s="2"/>
@@ -4558,7 +4572,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="2"/>
       <c r="L98" s="6" t="e">
-        <f>E98/K98</f>
+        <f t="shared" ref="L98:L129" si="11">E98/K98</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M98" s="3"/>
@@ -4573,11 +4587,11 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="2">
-        <f>_xlfn.DAYS(D99,C99)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F99" s="5" t="str">
-        <f>IF(E99&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G99" s="2"/>
@@ -4586,7 +4600,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="2"/>
       <c r="L99" s="6" t="e">
-        <f>E99/K99</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M99" s="3"/>
@@ -4601,11 +4615,11 @@
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="2">
-        <f>_xlfn.DAYS(D100,C100)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F100" s="5" t="str">
-        <f>IF(E100&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G100" s="2"/>
@@ -4614,7 +4628,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="2"/>
       <c r="L100" s="6" t="e">
-        <f>E100/K100</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M100" s="3"/>
@@ -4629,11 +4643,11 @@
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="2">
-        <f>_xlfn.DAYS(D101,C101)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F101" s="5" t="str">
-        <f>IF(E101&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G101" s="2"/>
@@ -4642,7 +4656,7 @@
       <c r="J101" s="3"/>
       <c r="K101" s="2"/>
       <c r="L101" s="6" t="e">
-        <f>E101/K101</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M101" s="3"/>
@@ -4657,11 +4671,11 @@
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="2">
-        <f>_xlfn.DAYS(D102,C102)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F102" s="5" t="str">
-        <f>IF(E102&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G102" s="2"/>
@@ -4670,7 +4684,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="2"/>
       <c r="L102" s="6" t="e">
-        <f>E102/K102</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M102" s="3"/>
@@ -4685,11 +4699,11 @@
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="2">
-        <f>_xlfn.DAYS(D103,C103)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F103" s="5" t="str">
-        <f>IF(E103&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G103" s="2"/>
@@ -4698,7 +4712,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="2"/>
       <c r="L103" s="6" t="e">
-        <f>E103/K103</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M103" s="3"/>
@@ -4713,11 +4727,11 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="2">
-        <f>_xlfn.DAYS(D104,C104)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F104" s="5" t="str">
-        <f>IF(E104&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G104" s="2"/>
@@ -4726,7 +4740,7 @@
       <c r="J104" s="3"/>
       <c r="K104" s="2"/>
       <c r="L104" s="6" t="e">
-        <f>E104/K104</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M104" s="3"/>
@@ -4741,11 +4755,11 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="2">
-        <f>_xlfn.DAYS(D105,C105)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F105" s="5" t="str">
-        <f>IF(E105&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G105" s="2"/>
@@ -4754,7 +4768,7 @@
       <c r="J105" s="3"/>
       <c r="K105" s="2"/>
       <c r="L105" s="6" t="e">
-        <f>E105/K105</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M105" s="3"/>
@@ -4769,11 +4783,11 @@
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="2">
-        <f>_xlfn.DAYS(D106,C106)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F106" s="5" t="str">
-        <f>IF(E106&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G106" s="2"/>
@@ -4782,7 +4796,7 @@
       <c r="J106" s="3"/>
       <c r="K106" s="2"/>
       <c r="L106" s="6" t="e">
-        <f>E106/K106</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M106" s="3"/>
@@ -4797,11 +4811,11 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="2">
-        <f>_xlfn.DAYS(D107,C107)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F107" s="5" t="str">
-        <f>IF(E107&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G107" s="2"/>
@@ -4810,7 +4824,7 @@
       <c r="J107" s="3"/>
       <c r="K107" s="2"/>
       <c r="L107" s="6" t="e">
-        <f>E107/K107</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M107" s="3"/>
@@ -4825,11 +4839,11 @@
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="2">
-        <f>_xlfn.DAYS(D108,C108)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F108" s="5" t="str">
-        <f>IF(E108&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G108" s="2"/>
@@ -4838,7 +4852,7 @@
       <c r="J108" s="3"/>
       <c r="K108" s="2"/>
       <c r="L108" s="6" t="e">
-        <f>E108/K108</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M108" s="3"/>
@@ -4853,11 +4867,11 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="2">
-        <f>_xlfn.DAYS(D109,C109)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F109" s="5" t="str">
-        <f>IF(E109&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G109" s="2"/>
@@ -4866,7 +4880,7 @@
       <c r="J109" s="3"/>
       <c r="K109" s="23"/>
       <c r="L109" s="6" t="e">
-        <f>E109/K109</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M109" s="3"/>
@@ -4881,11 +4895,11 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="2">
-        <f>_xlfn.DAYS(D110,C110)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F110" s="5" t="str">
-        <f>IF(E110&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G110" s="2"/>
@@ -4894,7 +4908,7 @@
       <c r="J110" s="3"/>
       <c r="K110" s="2"/>
       <c r="L110" s="6" t="e">
-        <f>E110/K110</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M110" s="3"/>
@@ -4909,11 +4923,11 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="2">
-        <f>_xlfn.DAYS(D111,C111)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F111" s="5" t="str">
-        <f>IF(E111&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G111" s="2"/>
@@ -4922,7 +4936,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="2"/>
       <c r="L111" s="6" t="e">
-        <f>E111/K111</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M111" s="3"/>
@@ -4937,11 +4951,11 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="2">
-        <f>_xlfn.DAYS(D112,C112)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F112" s="5" t="str">
-        <f>IF(E112&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G112" s="2"/>
@@ -4950,7 +4964,7 @@
       <c r="J112" s="3"/>
       <c r="K112" s="23"/>
       <c r="L112" s="6" t="e">
-        <f>E112/K112</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M112" s="3"/>
@@ -4965,11 +4979,11 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="2">
-        <f>_xlfn.DAYS(D113,C113)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F113" s="5" t="str">
-        <f>IF(E113&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G113" s="2"/>
@@ -4978,7 +4992,7 @@
       <c r="J113" s="3"/>
       <c r="K113" s="2"/>
       <c r="L113" s="6" t="e">
-        <f>E113/K113</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M113" s="3"/>
@@ -4993,11 +5007,11 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="2">
-        <f>_xlfn.DAYS(D114,C114)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F114" s="5" t="str">
-        <f>IF(E114&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G114" s="2"/>
@@ -5006,7 +5020,7 @@
       <c r="J114" s="3"/>
       <c r="K114" s="2"/>
       <c r="L114" s="6" t="e">
-        <f>E114/K114</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M114" s="3"/>
@@ -5021,11 +5035,11 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="2">
-        <f>_xlfn.DAYS(D115,C115)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F115" s="5" t="str">
-        <f>IF(E115&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G115" s="2"/>
@@ -5034,7 +5048,7 @@
       <c r="J115" s="3"/>
       <c r="K115" s="2"/>
       <c r="L115" s="6" t="e">
-        <f>E115/K115</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M115" s="3"/>
@@ -5049,11 +5063,11 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="2">
-        <f>_xlfn.DAYS(D116,C116)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F116" s="5" t="str">
-        <f>IF(E116&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G116" s="2"/>
@@ -5062,7 +5076,7 @@
       <c r="J116" s="3"/>
       <c r="K116" s="2"/>
       <c r="L116" s="6" t="e">
-        <f>E116/K116</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M116" s="3"/>
@@ -5077,11 +5091,11 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="2">
-        <f>_xlfn.DAYS(D117,C117)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F117" s="5" t="str">
-        <f>IF(E117&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G117" s="2"/>
@@ -5090,7 +5104,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="2"/>
       <c r="L117" s="6" t="e">
-        <f>E117/K117</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M117" s="3"/>
@@ -5105,11 +5119,11 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="2">
-        <f>_xlfn.DAYS(D118,C118)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F118" s="5" t="str">
-        <f>IF(E118&lt;=56,"Ja","Nee")</f>
+        <f t="shared" si="10"/>
         <v>Ja</v>
       </c>
       <c r="G118" s="2"/>
@@ -5118,7 +5132,7 @@
       <c r="J118" s="3"/>
       <c r="K118" s="2"/>
       <c r="L118" s="6" t="e">
-        <f>E118/K118</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M118" s="3"/>
@@ -5135,10 +5149,13 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="O14" r:id="rId1" xr:uid="{C6176581-2783-4C03-9D12-40C2A46C48DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>